--- a/kicad/ELSONIC/POWER_BD_SV2/POWER_BD_SV2.xlsx
+++ b/kicad/ELSONIC/POWER_BD_SV2/POWER_BD_SV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AllData\06_Embedded_Proj\KiCAD\ELSONIC\POWER_BD_NV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AllData\06_Embedded_Proj\KiCAD\ELSONIC\POWER_BD_SV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3432D124-E7DA-420A-9AB8-1758DFE0EDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8C58FB-83A3-41B1-B63C-FCB193B0EA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="585" windowWidth="24960" windowHeight="14205"/>
+    <workbookView xWindow="30000" yWindow="525" windowWidth="24960" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POWER_BD_NV2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
   <si>
     <t>Reference</t>
   </si>
@@ -85,9 +85,6 @@
     <t>EC47uF/35V</t>
   </si>
   <si>
-    <t>C11,C13</t>
-  </si>
-  <si>
     <t>MLCC475</t>
   </si>
   <si>
@@ -193,12 +190,6 @@
     <t>SMW250-02P</t>
   </si>
   <si>
-    <t>L1,L2,L3</t>
-  </si>
-  <si>
-    <t>2.2uH/4.2A</t>
-  </si>
-  <si>
     <t>LED1,LED2</t>
   </si>
   <si>
@@ -217,9 +208,6 @@
     <t>560K/1W</t>
   </si>
   <si>
-    <t>R2,R21</t>
-  </si>
-  <si>
     <t>1K</t>
   </si>
   <si>
@@ -253,9 +241,6 @@
     <t>4.7K</t>
   </si>
   <si>
-    <t>R10</t>
-  </si>
-  <si>
     <t>3.3K</t>
   </si>
   <si>
@@ -265,9 +250,6 @@
     <t>820R</t>
   </si>
   <si>
-    <t>R13</t>
-  </si>
-  <si>
     <t>1.2K</t>
   </si>
   <si>
@@ -286,27 +268,12 @@
     <t>R18</t>
   </si>
   <si>
-    <t>20K</t>
-  </si>
-  <si>
     <t>R19</t>
   </si>
   <si>
-    <t>18K</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>680R</t>
-  </si>
-  <si>
     <t>R23</t>
   </si>
   <si>
-    <t>330R</t>
-  </si>
-  <si>
     <t>R24</t>
   </si>
   <si>
@@ -383,12 +350,54 @@
   </si>
   <si>
     <t>TL431A</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>22uH/4.2A</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>10uH/4.2A</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>4.7uH/4.2A</t>
+  </si>
+  <si>
+    <t>R2,R13</t>
+  </si>
+  <si>
+    <t>R10,R22</t>
+  </si>
+  <si>
+    <t>40K</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>220R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1357,22 +1366,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="0.875" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1383,8 +1397,18 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1397,8 +1421,20 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="2">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1411,8 +1447,20 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="2">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1425,8 +1473,20 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" s="2">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1439,8 +1499,20 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="2">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1453,8 +1525,20 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="2">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1467,8 +1551,20 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="2">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1481,8 +1577,20 @@
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="2">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1495,8 +1603,20 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9" s="2">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1509,710 +1629,582 @@
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="2">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2">
+        <v>46</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F18" s="2">
+        <v>48</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2">
+        <v>49</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2">
+        <v>50</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2">
+        <v>51</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2">
+        <v>52</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="F23" s="2">
+        <v>53</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F24" s="2">
+        <v>54</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="F25" s="2">
+        <v>55</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="F26" s="2">
+        <v>56</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F27" s="2">
+        <v>57</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="F28" s="2">
+        <v>58</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F29" s="2">
+        <v>59</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="2">
         <v>61</v>
       </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="2">
-        <v>3</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>